--- a/biology/Médecine/Jean-Richard_Freymann/Jean-Richard_Freymann.xlsx
+++ b/biology/Médecine/Jean-Richard_Freymann/Jean-Richard_Freymann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Richard Freymann est un écrivain, psychiatre et psychanalyste français né à Strasbourg le 21 juillet 1949[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Richard Freymann est un écrivain, psychiatre et psychanalyste français né à Strasbourg le 21 juillet 1949.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1969, Jean-Richard Freymann soutient une thèse de médecine à l'université de Paris[2].
-Il est aujourd'hui écrivain, psychanalyste, praticien psychiatre associé au CHU de Strasbourg. Jean-Richard Freymann est le directeur scientifique des éditions Arcanes et président de la FEDEPSY (Fédération Européenne de Psychanalyse et École psychanalytique de Strasbourg)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1969, Jean-Richard Freymann soutient une thèse de médecine à l'université de Paris.
+Il est aujourd'hui écrivain, psychanalyste, praticien psychiatre associé au CHU de Strasbourg. Jean-Richard Freymann est le directeur scientifique des éditions Arcanes et président de la FEDEPSY (Fédération Européenne de Psychanalyse et École psychanalytique de Strasbourg).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travail</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En outre de son travail comme psychanalyste, psychiatre, praticien hospitalier à la clinique psychiatrique de Strasbourg, directeur de l’École Psychanalytique de Strasbourg, président de la FEDEPSY, co-responsabilités à la faculté de médecine de Strasbourg et directeur de la Collection Hypothèses chez Arcanes-Érès, Jean-Richard Freymann présente sa vue sur les bases conceptuelles des psychothérapies analytiques aussi en conférence-débat[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En outre de son travail comme psychanalyste, psychiatre, praticien hospitalier à la clinique psychiatrique de Strasbourg, directeur de l’École Psychanalytique de Strasbourg, président de la FEDEPSY, co-responsabilités à la faculté de médecine de Strasbourg et directeur de la Collection Hypothèses chez Arcanes-Érès, Jean-Richard Freymann présente sa vue sur les bases conceptuelles des psychothérapies analytiques aussi en conférence-débat.
 </t>
         </is>
       </c>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Livres
-Les mécanismes psychiques de l'inconscient, Toulouse/Strasbourg, Érès éditions / Arcanes, 2019, 135 p. (ISBN 978-2-7492-6300-7)
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les mécanismes psychiques de l'inconscient, Toulouse/Strasbourg, Érès éditions / Arcanes, 2019, 135 p. (ISBN 978-2-7492-6300-7)
 L'inconscient, pour quoi faire ? : Introduction à la clinique psychanalytique, Toulouse/Strasbourg, Érèss, coll. « Hypothèses », 2018, 127 p. (ISBN 978-2-7492-5794-5) (Aussi version Kindle)
 Les Entretiens préliminaires à une psychanalyse, Toulouse/Strasbourg, Érèss, 2016, 136 p. (ISBN 978-2-7492-4981-0)
 Éloge de la perte : perte d'objets, formation du sujet  (préf. Roland Gori), Toulouse/Strasbourg, Érèss, 2015, 262 p. (ISBN 978-2-7492-4749-6)
@@ -591,9 +612,7 @@
 avec Michel Patris, Du délire au désir, Érès, 2003 (ISBN 978-2-86586-955-8)
 Les parures de l'oralité, Érès, 1992, 169 p. (ISBN 978-2-287-00390-5)
 L'Acte-Les outils de la clinique, Arcanes (réimpr. 2006) (ISBN 978-2-910729-57-8)
-Passe, un père et manque  (préf. Michel Patris, postface Philippe Choulet), Ramonville Saint-Agne/Strasbourg, Érèss, coll. « Hypothèses », 2008, 159 p. (ISBN 978-2-7492-0867-1)
-Articles
-« La naissance du désir », Figures de la psychanalyse, vol. 13, no 1,‎ janvier 2006 (DOI 10.3917/fp.013.0243)</t>
+Passe, un père et manque  (préf. Michel Patris, postface Philippe Choulet), Ramonville Saint-Agne/Strasbourg, Érèss, coll. « Hypothèses », 2008, 159 p. (ISBN 978-2-7492-0867-1)</t>
         </is>
       </c>
     </row>
@@ -618,10 +637,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>« La naissance du désir », Figures de la psychanalyse, vol. 13, no 1,‎ janvier 2006 (DOI 10.3917/fp.013.0243)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Richard_Freymann</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Richard_Freymann</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Marie Bur, Considérations psychiatriques, expertales et psychanalytiques de l'acte fou : A partir de la tuerie de masse, 2014</t>
         </is>
